--- a/pdf/RTTBC26-Schedule-by-Division.xlsx
+++ b/pdf/RTTBC26-Schedule-by-Division.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299f8723705ec823/Webmaster/gallop-racing/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1297" documentId="8_{DAECCBE5-FF72-4188-B2F1-1541968A3FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B0E6E5-2465-4444-8DB8-45E8949AC47C}"/>
+  <xr:revisionPtr revIDLastSave="1310" documentId="8_{DAECCBE5-FF72-4188-B2F1-1541968A3FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A213F005-6B83-4C67-8B46-2D32B9DCC126}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EAD27B02-19FE-4D48-9014-ED6E24DB84F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EAD27B02-19FE-4D48-9014-ED6E24DB84F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>9 Furlongs</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Molly Pitcher S.-G2</t>
+  </si>
+  <si>
+    <t>Maxfield S.-G3</t>
+  </si>
+  <si>
+    <t>Hanshin S.-G3</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -661,11 +667,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,15 +821,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -829,40 +848,65 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,9 +934,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,13 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,40 +1319,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1783450-6415-4D0D-A0B8-DEE615502A89}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="98" t="s">
+    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="100" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="103" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="31"/>
@@ -1343,8 +1378,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="100"/>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="103"/>
       <c r="B3" s="32"/>
       <c r="C3" s="30" t="s">
         <v>5</v>
@@ -1368,9 +1403,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="100"/>
-      <c r="B4" s="72">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="103"/>
+      <c r="B4" s="78">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1381,53 +1416,53 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="68" t="s">
         <v>90</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="100"/>
-      <c r="B5" s="73"/>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="103"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="58"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="100"/>
-      <c r="B6" s="73"/>
+    <row r="6" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="103"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="12"/>
       <c r="D6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="58"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="103"/>
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="4"/>
@@ -1438,8 +1473,8 @@
       <c r="H7" s="15"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="103"/>
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -1449,690 +1484,712 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="48" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="48" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
-      <c r="B9" s="38">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="103"/>
+      <c r="B9" s="78">
         <v>4</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="36" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="72">
+    <row r="10" spans="1:9" s="45" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
+      <c r="B11" s="78">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="36" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="103"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="37" t="s">
+      <c r="D12" s="75"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="69"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="7" t="s">
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="103"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="100"/>
-      <c r="B13" s="33">
+      <c r="D13" s="75"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="103"/>
+      <c r="B14" s="33">
         <v>6</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="100"/>
-      <c r="B14" s="72">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="103"/>
+      <c r="B15" s="78">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="57" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I15" s="68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="100"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="19" t="s">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="103"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="103"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="100"/>
-      <c r="B17" s="72">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="103"/>
+      <c r="B18" s="78">
         <v>8</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="84" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="6" t="s">
+      <c r="H18" s="62"/>
+      <c r="I18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="100"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="22" t="s">
+    <row r="19" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="103"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="100"/>
-      <c r="B19" s="72">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="103"/>
+      <c r="B20" s="78">
         <v>9</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E20" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F20" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="86" t="s">
+      <c r="G20" s="62"/>
+      <c r="H20" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="7" t="s">
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="103"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="63"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="100"/>
-      <c r="B21" s="38">
+      <c r="D21" s="70"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="103"/>
+      <c r="B22" s="38">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="100"/>
-      <c r="B22" s="38">
-        <v>11</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="41" t="s">
-        <v>41</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="100"/>
-      <c r="B23" s="72">
+    <row r="23" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="103"/>
+      <c r="B23" s="38">
+        <v>11</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="103"/>
+      <c r="B24" s="78">
         <v>12</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="20" t="s">
+      <c r="E24" s="62"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="100"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="21" t="s">
+      <c r="I24" s="62"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="103"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="21" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="100"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="14" t="s">
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="103"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="100"/>
-      <c r="B26" s="72">
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="103"/>
+      <c r="B27" s="78">
         <v>13</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D27" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E27" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="68" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="100"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="22" t="s">
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="103"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="100"/>
-      <c r="B28" s="33">
+      <c r="D28" s="57"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="103"/>
+      <c r="B29" s="33">
         <v>14</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="25" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F29" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="100"/>
-      <c r="B29" s="33">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="72">
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="103"/>
+      <c r="B30" s="33">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="78">
         <v>16</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C31" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D31" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="36" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I31" s="68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="100"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="40" t="s">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="103"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="100"/>
-      <c r="B32" s="72">
+      <c r="I32" s="69"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="103"/>
+      <c r="B33" s="78">
         <v>17</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D33" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="96" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H33" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="100"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="19" t="s">
+    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="103"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D34" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="55" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="44" t="s">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="103"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D35" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="79"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="84"/>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="103"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="80"/>
-    </row>
-    <row r="36" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="100"/>
-      <c r="B36" s="72">
+      <c r="D36" s="88"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="85"/>
+    </row>
+    <row r="37" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="103"/>
+      <c r="B37" s="78">
         <v>18</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="20" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F37" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="42" t="s">
+      <c r="G37" s="62"/>
+      <c r="H37" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="81" t="s">
+      <c r="I37" s="60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="100"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="19" t="s">
+    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="103"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E38" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F38" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="39" t="s">
+      <c r="G38" s="71"/>
+      <c r="H38" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="82"/>
-    </row>
-    <row r="38" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="100"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="22" t="s">
+      <c r="I38" s="86"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="103"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="100"/>
-      <c r="B39" s="33">
+      <c r="G39" s="63"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="61"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="103"/>
+      <c r="B40" s="33">
         <v>20</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="15" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="89"/>
-      <c r="B40" s="71" t="s">
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="92"/>
+      <c r="B41" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="95"/>
-    </row>
-    <row r="41" spans="1:9" s="16" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="89"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17">
-        <f>COUNTIF(C4:C39, "&lt;&gt;")</f>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="98"/>
+    </row>
+    <row r="42" spans="1:9" s="16" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="92"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="17">
+        <f>COUNTIF(C4:C40, "&lt;&gt;")</f>
         <v>21</v>
       </c>
-      <c r="D41" s="17">
-        <f>COUNTIF(D4:D39, "&lt;&gt;")</f>
+      <c r="D42" s="17">
+        <f>COUNTIF(D4:D40, "&lt;&gt;")</f>
         <v>20</v>
       </c>
-      <c r="E41" s="17">
-        <f t="shared" ref="E41:I41" si="0">COUNTIF(E4:E39, "&lt;&gt;")</f>
+      <c r="E42" s="17">
+        <f t="shared" ref="E42:I42" si="0">COUNTIF(E4:E40, "&lt;&gt;")</f>
         <v>9</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H41" s="17">
+        <v>10</v>
+      </c>
+      <c r="H42" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="89"/>
-      <c r="B42" s="71" t="str">
-        <f>SUM(C41:I41) &amp; " Total Races (Prior to Breeders' Cup Weekend)"</f>
-        <v>93 Total Races (Prior to Breeders' Cup Weekend)</v>
-      </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="89"/>
-      <c r="B43" s="90" t="s">
+    <row r="43" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="92"/>
+      <c r="B43" s="77" t="str">
+        <f>SUM(C42:I42) &amp; " Total Races (Prior to Breeders' Cup Weekend)"</f>
+        <v>95 Total Races (Prior to Breeders' Cup Weekend)</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="92"/>
+      <c r="B44" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="92" t="s">
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="94"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="76">
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="10" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
